--- a/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboard.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboard.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DAFBFE-BB91-492D-994A-177B02FD94BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1968" windowHeight="0"/>
+    <workbookView xWindow="2832" yWindow="2532" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,13 +54,13 @@
     <t>Danny Personal Money</t>
   </si>
   <si>
-    <t>Danny Business Money</t>
+    <t>Test User Dash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,17 +371,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -398,13 +405,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -412,13 +419,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -426,13 +433,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -440,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>13</v>

--- a/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboard.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\src\Nedbank.MoneyTracker.Api\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DAFBFE-BB91-492D-994A-177B02FD94BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FDAD5C-60C5-449B-BC22-690756F84F76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="2532" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="1308" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DashboardTypeId</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Test User Dash</t>
+  </si>
+  <si>
+    <t>Test User Dash 2</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,6 +459,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
